--- a/po_analysis_by_asin/B083RVX2FQ_po_data.xlsx
+++ b/po_analysis_by_asin/B083RVX2FQ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,265 +452,337 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>192</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45446</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45460</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45467</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45474</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45481</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45495</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45502</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45509</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>264</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45516</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45530</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45537</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45551</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45572</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45579</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45586</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45607</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B43" t="n">
         <v>48</v>
       </c>
     </row>
@@ -725,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,89 +819,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>264</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>248</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>328</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>56</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>680</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>48</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083RVX2FQ_po_data.xlsx
+++ b/po_analysis_by_asin/B083RVX2FQ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -813,7 +814,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -919,6 +920,747 @@
       </c>
       <c r="B14" t="n">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-90.66872078194</v>
+      </c>
+      <c r="D2" t="n">
+        <v>174.891566071575</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-93.99846192844886</v>
+      </c>
+      <c r="D3" t="n">
+        <v>168.0701914670582</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-83.57839182582784</v>
+      </c>
+      <c r="D4" t="n">
+        <v>176.8646399645672</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-91.85006568799612</v>
+      </c>
+      <c r="D5" t="n">
+        <v>178.0128804777577</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-90.7895138738582</v>
+      </c>
+      <c r="D6" t="n">
+        <v>176.3675736060794</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-87.55993462089722</v>
+      </c>
+      <c r="D7" t="n">
+        <v>177.0847803628496</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-91.36444145845201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>170.4736356690826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-81.82807524176926</v>
+      </c>
+      <c r="D9" t="n">
+        <v>177.3277681823568</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-74.8443843618642</v>
+      </c>
+      <c r="D10" t="n">
+        <v>180.5896345634308</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-71.51203990305179</v>
+      </c>
+      <c r="D11" t="n">
+        <v>199.6889375421677</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-75.22850737013344</v>
+      </c>
+      <c r="D12" t="n">
+        <v>193.3903562888575</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>61</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-73.96353979985133</v>
+      </c>
+      <c r="D13" t="n">
+        <v>189.7629362819077</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>62</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-53.35898400294813</v>
+      </c>
+      <c r="D14" t="n">
+        <v>195.1846969785103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>63</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-73.70797928640624</v>
+      </c>
+      <c r="D15" t="n">
+        <v>195.0876879178187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-71.44544026354656</v>
+      </c>
+      <c r="D16" t="n">
+        <v>199.1708080466981</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>65</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-67.44402614335915</v>
+      </c>
+      <c r="D17" t="n">
+        <v>188.7561425033183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>66</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-63.71028034757629</v>
+      </c>
+      <c r="D18" t="n">
+        <v>210.477571810354</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>67</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-66.56509509918267</v>
+      </c>
+      <c r="D19" t="n">
+        <v>193.1316571557421</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>68</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-59.85306365204585</v>
+      </c>
+      <c r="D20" t="n">
+        <v>199.8818085645502</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>69</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-58.1732889124111</v>
+      </c>
+      <c r="D21" t="n">
+        <v>197.8064231544472</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>73</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-53.32978324617025</v>
+      </c>
+      <c r="D22" t="n">
+        <v>208.4666913118727</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>74</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-56.80165420090386</v>
+      </c>
+      <c r="D23" t="n">
+        <v>209.2611866538984</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>75</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-52.67420089854738</v>
+      </c>
+      <c r="D24" t="n">
+        <v>215.4474330129594</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>76</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-57.58201748027749</v>
+      </c>
+      <c r="D25" t="n">
+        <v>196.8076068461238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-50.45890201387516</v>
+      </c>
+      <c r="D26" t="n">
+        <v>215.5618438270902</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>78</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-52.47450584385074</v>
+      </c>
+      <c r="D27" t="n">
+        <v>200.4296319525432</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>79</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-51.475927093919</v>
+      </c>
+      <c r="D28" t="n">
+        <v>210.5351557628362</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>80</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-50.40850395582372</v>
+      </c>
+      <c r="D29" t="n">
+        <v>215.5766864360512</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>81</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-49.41608788040549</v>
+      </c>
+      <c r="D30" t="n">
+        <v>203.5203032106204</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>82</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-42.67636699510993</v>
+      </c>
+      <c r="D31" t="n">
+        <v>217.6603359109833</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>83</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-45.06397922377502</v>
+      </c>
+      <c r="D32" t="n">
+        <v>209.5252557761727</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>85</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-45.44182068346369</v>
+      </c>
+      <c r="D33" t="n">
+        <v>213.8148545375986</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>86</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-40.73358664183184</v>
+      </c>
+      <c r="D34" t="n">
+        <v>215.2221277711008</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>87</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-45.72822009436253</v>
+      </c>
+      <c r="D35" t="n">
+        <v>216.0790988886101</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>88</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-39.35325942671523</v>
+      </c>
+      <c r="D36" t="n">
+        <v>221.345164801174</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-36.99324315410711</v>
+      </c>
+      <c r="D37" t="n">
+        <v>221.6924319656547</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>91</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-36.06313040680885</v>
+      </c>
+      <c r="D38" t="n">
+        <v>234.4421399100779</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>93</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-42.27383925292838</v>
+      </c>
+      <c r="D39" t="n">
+        <v>231.5665718019249</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>96</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-33.3422965815422</v>
+      </c>
+      <c r="D40" t="n">
+        <v>224.2705643306762</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>97</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-33.84212308374682</v>
+      </c>
+      <c r="D41" t="n">
+        <v>233.7697336881544</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>99</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-47.19515079387457</v>
+      </c>
+      <c r="D42" t="n">
+        <v>217.1758518870413</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>102</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-21.63465718374052</v>
+      </c>
+      <c r="D43" t="n">
+        <v>239.4094998348182</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>103</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-21.0357489690597</v>
+      </c>
+      <c r="D44" t="n">
+        <v>235.3049247889845</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>104</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-31.09233637739603</v>
+      </c>
+      <c r="D45" t="n">
+        <v>235.4587894895422</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>105</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-22.45666856062826</v>
+      </c>
+      <c r="D46" t="n">
+        <v>232.2254843558869</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>106</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-31.59104618825571</v>
+      </c>
+      <c r="D47" t="n">
+        <v>233.1526296364119</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>107</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-27.21679359472976</v>
+      </c>
+      <c r="D48" t="n">
+        <v>229.5181224550217</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>108</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-23.86811097302571</v>
+      </c>
+      <c r="D49" t="n">
+        <v>250.0158142063807</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>109</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-19.64529592492675</v>
+      </c>
+      <c r="D50" t="n">
+        <v>242.0598031075537</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>110</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-17.79038444052197</v>
+      </c>
+      <c r="D51" t="n">
+        <v>242.5510016323596</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083RVX2FQ_po_data.xlsx
+++ b/po_analysis_by_asin/B083RVX2FQ_po_data.xlsx
@@ -933,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,16 +952,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -970,12 +960,6 @@
       <c r="B2" t="n">
         <v>41</v>
       </c>
-      <c r="C2" t="n">
-        <v>-90.66872078194</v>
-      </c>
-      <c r="D2" t="n">
-        <v>174.891566071575</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -984,12 +968,6 @@
       <c r="B3" t="n">
         <v>43</v>
       </c>
-      <c r="C3" t="n">
-        <v>-93.99846192844886</v>
-      </c>
-      <c r="D3" t="n">
-        <v>168.0701914670582</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -998,12 +976,6 @@
       <c r="B4" t="n">
         <v>44</v>
       </c>
-      <c r="C4" t="n">
-        <v>-83.57839182582784</v>
-      </c>
-      <c r="D4" t="n">
-        <v>176.8646399645672</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1012,12 +984,6 @@
       <c r="B5" t="n">
         <v>45</v>
       </c>
-      <c r="C5" t="n">
-        <v>-91.85006568799612</v>
-      </c>
-      <c r="D5" t="n">
-        <v>178.0128804777577</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1026,12 +992,6 @@
       <c r="B6" t="n">
         <v>46</v>
       </c>
-      <c r="C6" t="n">
-        <v>-90.7895138738582</v>
-      </c>
-      <c r="D6" t="n">
-        <v>176.3675736060794</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1040,12 +1000,6 @@
       <c r="B7" t="n">
         <v>47</v>
       </c>
-      <c r="C7" t="n">
-        <v>-87.55993462089722</v>
-      </c>
-      <c r="D7" t="n">
-        <v>177.0847803628496</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1054,12 +1008,6 @@
       <c r="B8" t="n">
         <v>48</v>
       </c>
-      <c r="C8" t="n">
-        <v>-91.36444145845201</v>
-      </c>
-      <c r="D8" t="n">
-        <v>170.4736356690826</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1068,12 +1016,6 @@
       <c r="B9" t="n">
         <v>49</v>
       </c>
-      <c r="C9" t="n">
-        <v>-81.82807524176926</v>
-      </c>
-      <c r="D9" t="n">
-        <v>177.3277681823568</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1082,12 +1024,6 @@
       <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="n">
-        <v>-74.8443843618642</v>
-      </c>
-      <c r="D10" t="n">
-        <v>180.5896345634308</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1096,12 +1032,6 @@
       <c r="B11" t="n">
         <v>59</v>
       </c>
-      <c r="C11" t="n">
-        <v>-71.51203990305179</v>
-      </c>
-      <c r="D11" t="n">
-        <v>199.6889375421677</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1110,12 +1040,6 @@
       <c r="B12" t="n">
         <v>60</v>
       </c>
-      <c r="C12" t="n">
-        <v>-75.22850737013344</v>
-      </c>
-      <c r="D12" t="n">
-        <v>193.3903562888575</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1124,12 +1048,6 @@
       <c r="B13" t="n">
         <v>61</v>
       </c>
-      <c r="C13" t="n">
-        <v>-73.96353979985133</v>
-      </c>
-      <c r="D13" t="n">
-        <v>189.7629362819077</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1138,12 +1056,6 @@
       <c r="B14" t="n">
         <v>62</v>
       </c>
-      <c r="C14" t="n">
-        <v>-53.35898400294813</v>
-      </c>
-      <c r="D14" t="n">
-        <v>195.1846969785103</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1152,12 +1064,6 @@
       <c r="B15" t="n">
         <v>63</v>
       </c>
-      <c r="C15" t="n">
-        <v>-73.70797928640624</v>
-      </c>
-      <c r="D15" t="n">
-        <v>195.0876879178187</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1166,12 +1072,6 @@
       <c r="B16" t="n">
         <v>64</v>
       </c>
-      <c r="C16" t="n">
-        <v>-71.44544026354656</v>
-      </c>
-      <c r="D16" t="n">
-        <v>199.1708080466981</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1180,12 +1080,6 @@
       <c r="B17" t="n">
         <v>65</v>
       </c>
-      <c r="C17" t="n">
-        <v>-67.44402614335915</v>
-      </c>
-      <c r="D17" t="n">
-        <v>188.7561425033183</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1194,12 +1088,6 @@
       <c r="B18" t="n">
         <v>66</v>
       </c>
-      <c r="C18" t="n">
-        <v>-63.71028034757629</v>
-      </c>
-      <c r="D18" t="n">
-        <v>210.477571810354</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1208,12 +1096,6 @@
       <c r="B19" t="n">
         <v>67</v>
       </c>
-      <c r="C19" t="n">
-        <v>-66.56509509918267</v>
-      </c>
-      <c r="D19" t="n">
-        <v>193.1316571557421</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1222,12 +1104,6 @@
       <c r="B20" t="n">
         <v>68</v>
       </c>
-      <c r="C20" t="n">
-        <v>-59.85306365204585</v>
-      </c>
-      <c r="D20" t="n">
-        <v>199.8818085645502</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1236,12 +1112,6 @@
       <c r="B21" t="n">
         <v>69</v>
       </c>
-      <c r="C21" t="n">
-        <v>-58.1732889124111</v>
-      </c>
-      <c r="D21" t="n">
-        <v>197.8064231544472</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1250,12 +1120,6 @@
       <c r="B22" t="n">
         <v>73</v>
       </c>
-      <c r="C22" t="n">
-        <v>-53.32978324617025</v>
-      </c>
-      <c r="D22" t="n">
-        <v>208.4666913118727</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1264,12 +1128,6 @@
       <c r="B23" t="n">
         <v>74</v>
       </c>
-      <c r="C23" t="n">
-        <v>-56.80165420090386</v>
-      </c>
-      <c r="D23" t="n">
-        <v>209.2611866538984</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1278,12 +1136,6 @@
       <c r="B24" t="n">
         <v>75</v>
       </c>
-      <c r="C24" t="n">
-        <v>-52.67420089854738</v>
-      </c>
-      <c r="D24" t="n">
-        <v>215.4474330129594</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1292,12 +1144,6 @@
       <c r="B25" t="n">
         <v>76</v>
       </c>
-      <c r="C25" t="n">
-        <v>-57.58201748027749</v>
-      </c>
-      <c r="D25" t="n">
-        <v>196.8076068461238</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1306,12 +1152,6 @@
       <c r="B26" t="n">
         <v>77</v>
       </c>
-      <c r="C26" t="n">
-        <v>-50.45890201387516</v>
-      </c>
-      <c r="D26" t="n">
-        <v>215.5618438270902</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1320,12 +1160,6 @@
       <c r="B27" t="n">
         <v>78</v>
       </c>
-      <c r="C27" t="n">
-        <v>-52.47450584385074</v>
-      </c>
-      <c r="D27" t="n">
-        <v>200.4296319525432</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1334,12 +1168,6 @@
       <c r="B28" t="n">
         <v>79</v>
       </c>
-      <c r="C28" t="n">
-        <v>-51.475927093919</v>
-      </c>
-      <c r="D28" t="n">
-        <v>210.5351557628362</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1348,12 +1176,6 @@
       <c r="B29" t="n">
         <v>80</v>
       </c>
-      <c r="C29" t="n">
-        <v>-50.40850395582372</v>
-      </c>
-      <c r="D29" t="n">
-        <v>215.5766864360512</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1362,12 +1184,6 @@
       <c r="B30" t="n">
         <v>81</v>
       </c>
-      <c r="C30" t="n">
-        <v>-49.41608788040549</v>
-      </c>
-      <c r="D30" t="n">
-        <v>203.5203032106204</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1376,12 +1192,6 @@
       <c r="B31" t="n">
         <v>82</v>
       </c>
-      <c r="C31" t="n">
-        <v>-42.67636699510993</v>
-      </c>
-      <c r="D31" t="n">
-        <v>217.6603359109833</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1390,12 +1200,6 @@
       <c r="B32" t="n">
         <v>83</v>
       </c>
-      <c r="C32" t="n">
-        <v>-45.06397922377502</v>
-      </c>
-      <c r="D32" t="n">
-        <v>209.5252557761727</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1404,12 +1208,6 @@
       <c r="B33" t="n">
         <v>85</v>
       </c>
-      <c r="C33" t="n">
-        <v>-45.44182068346369</v>
-      </c>
-      <c r="D33" t="n">
-        <v>213.8148545375986</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1418,12 +1216,6 @@
       <c r="B34" t="n">
         <v>86</v>
       </c>
-      <c r="C34" t="n">
-        <v>-40.73358664183184</v>
-      </c>
-      <c r="D34" t="n">
-        <v>215.2221277711008</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1432,12 +1224,6 @@
       <c r="B35" t="n">
         <v>87</v>
       </c>
-      <c r="C35" t="n">
-        <v>-45.72822009436253</v>
-      </c>
-      <c r="D35" t="n">
-        <v>216.0790988886101</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1446,12 +1232,6 @@
       <c r="B36" t="n">
         <v>88</v>
       </c>
-      <c r="C36" t="n">
-        <v>-39.35325942671523</v>
-      </c>
-      <c r="D36" t="n">
-        <v>221.345164801174</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1460,12 +1240,6 @@
       <c r="B37" t="n">
         <v>90</v>
       </c>
-      <c r="C37" t="n">
-        <v>-36.99324315410711</v>
-      </c>
-      <c r="D37" t="n">
-        <v>221.6924319656547</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1474,12 +1248,6 @@
       <c r="B38" t="n">
         <v>91</v>
       </c>
-      <c r="C38" t="n">
-        <v>-36.06313040680885</v>
-      </c>
-      <c r="D38" t="n">
-        <v>234.4421399100779</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1488,12 +1256,6 @@
       <c r="B39" t="n">
         <v>93</v>
       </c>
-      <c r="C39" t="n">
-        <v>-42.27383925292838</v>
-      </c>
-      <c r="D39" t="n">
-        <v>231.5665718019249</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1502,12 +1264,6 @@
       <c r="B40" t="n">
         <v>96</v>
       </c>
-      <c r="C40" t="n">
-        <v>-33.3422965815422</v>
-      </c>
-      <c r="D40" t="n">
-        <v>224.2705643306762</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1516,12 +1272,6 @@
       <c r="B41" t="n">
         <v>97</v>
       </c>
-      <c r="C41" t="n">
-        <v>-33.84212308374682</v>
-      </c>
-      <c r="D41" t="n">
-        <v>233.7697336881544</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1530,12 +1280,6 @@
       <c r="B42" t="n">
         <v>99</v>
       </c>
-      <c r="C42" t="n">
-        <v>-47.19515079387457</v>
-      </c>
-      <c r="D42" t="n">
-        <v>217.1758518870413</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1544,12 +1288,6 @@
       <c r="B43" t="n">
         <v>102</v>
       </c>
-      <c r="C43" t="n">
-        <v>-21.63465718374052</v>
-      </c>
-      <c r="D43" t="n">
-        <v>239.4094998348182</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1558,12 +1296,6 @@
       <c r="B44" t="n">
         <v>103</v>
       </c>
-      <c r="C44" t="n">
-        <v>-21.0357489690597</v>
-      </c>
-      <c r="D44" t="n">
-        <v>235.3049247889845</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1572,12 +1304,6 @@
       <c r="B45" t="n">
         <v>104</v>
       </c>
-      <c r="C45" t="n">
-        <v>-31.09233637739603</v>
-      </c>
-      <c r="D45" t="n">
-        <v>235.4587894895422</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1586,12 +1312,6 @@
       <c r="B46" t="n">
         <v>105</v>
       </c>
-      <c r="C46" t="n">
-        <v>-22.45666856062826</v>
-      </c>
-      <c r="D46" t="n">
-        <v>232.2254843558869</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1600,12 +1320,6 @@
       <c r="B47" t="n">
         <v>106</v>
       </c>
-      <c r="C47" t="n">
-        <v>-31.59104618825571</v>
-      </c>
-      <c r="D47" t="n">
-        <v>233.1526296364119</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1614,12 +1328,6 @@
       <c r="B48" t="n">
         <v>107</v>
       </c>
-      <c r="C48" t="n">
-        <v>-27.21679359472976</v>
-      </c>
-      <c r="D48" t="n">
-        <v>229.5181224550217</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1628,12 +1336,6 @@
       <c r="B49" t="n">
         <v>108</v>
       </c>
-      <c r="C49" t="n">
-        <v>-23.86811097302571</v>
-      </c>
-      <c r="D49" t="n">
-        <v>250.0158142063807</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1642,12 +1344,6 @@
       <c r="B50" t="n">
         <v>109</v>
       </c>
-      <c r="C50" t="n">
-        <v>-19.64529592492675</v>
-      </c>
-      <c r="D50" t="n">
-        <v>242.0598031075537</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1655,12 +1351,6 @@
       </c>
       <c r="B51" t="n">
         <v>110</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-17.79038444052197</v>
-      </c>
-      <c r="D51" t="n">
-        <v>242.5510016323596</v>
       </c>
     </row>
   </sheetData>
